--- a/Report Template/Daily-meeting1.xlsx
+++ b/Report Template/Daily-meeting1.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIthub folder\Enterprise-Web-Software-Development\Report Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7AD2AE-38FF-466D-B08E-1BDA9EFA5441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12780"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="113">
   <si>
     <t>Monday</t>
   </si>
@@ -217,15 +224,6 @@
     <t>week 3&lt;Design mockup &amp; user interface&gt;</t>
   </si>
   <si>
-    <t>week 5&lt;&gt;</t>
-  </si>
-  <si>
-    <t>week 6&lt;&gt;</t>
-  </si>
-  <si>
-    <t>week 7&lt;&gt;</t>
-  </si>
-  <si>
     <t>week 8&lt; Testing &amp; Deployment&gt;</t>
   </si>
   <si>
@@ -233,10 +231,6 @@
   </si>
   <si>
     <t>organize meeting problems encountered when presenting the user interface, and plan to modify the interface according to customer requirements</t>
-  </si>
-  <si>
-    <t>organize meeting problems encountered when presenting the user interface, 
-and plan to modify the interface according to customer requirements</t>
   </si>
   <si>
     <t>Customize the interface according to customer requirements</t>
@@ -254,12 +248,156 @@
     <t xml:space="preserve">Organize a meeting to inform about the early stages of completion, division and planning for the back-end stage
 Organize a meeting to inform about the early stages of completion, division and planning for the back-end stage
  </t>
+  </si>
+  <si>
+    <t>upload source code to github</t>
+  </si>
+  <si>
+    <t>Write Guide for website</t>
+  </si>
+  <si>
+    <t>Sprint planning final review</t>
+  </si>
+  <si>
+    <t>Upload website to host server</t>
+  </si>
+  <si>
+    <t>Implement final System testing</t>
+  </si>
+  <si>
+    <t>Develop Maintaince schedule for the system</t>
+  </si>
+  <si>
+    <t>Write Guideline for the website</t>
+  </si>
+  <si>
+    <t>week 6&lt;Build functions&gt;</t>
+  </si>
+  <si>
+    <t>week 7&lt;Implementation&gt;</t>
+  </si>
+  <si>
+    <t>Write final progress reports for phase 2</t>
+  </si>
+  <si>
+    <t>week 5&lt;Build general Functions&gt;</t>
+  </si>
+  <si>
+    <t>Build register function</t>
+  </si>
+  <si>
+    <t>Login/Logout function</t>
+  </si>
+  <si>
+    <t>Build Reset Password Function</t>
+  </si>
+  <si>
+    <t>Estimated database connection</t>
+  </si>
+  <si>
+    <t>Estimated testing plan for each functions</t>
+  </si>
+  <si>
+    <t>Modified database for each back-end functions</t>
+  </si>
+  <si>
+    <t>Meeting with customer to confirm the final result of this week</t>
+  </si>
+  <si>
+    <t>Database need to tobe modified fews fields characteristic</t>
+  </si>
+  <si>
+    <t>Build profile function (detail, add, edit)</t>
+  </si>
+  <si>
+    <t>Build send/get message function</t>
+  </si>
+  <si>
+    <t>Build arrange/record meeting function</t>
+  </si>
+  <si>
+    <t>Build upload document function</t>
+  </si>
+  <si>
+    <t>Build comment function</t>
+  </si>
+  <si>
+    <t>Build view statics function (report)</t>
+  </si>
+  <si>
+    <t>Build Blog Writing function</t>
+  </si>
+  <si>
+    <t>Build Allocate/De-Allocate function of tutor</t>
+  </si>
+  <si>
+    <t>Build Import/Export function of admin role</t>
+  </si>
+  <si>
+    <t>Build edit role function for admin</t>
+  </si>
+  <si>
+    <t>Implement testing for view user from admin</t>
+  </si>
+  <si>
+    <t>Build add/disable account function</t>
+  </si>
+  <si>
+    <t>self evaluating/Group evaluating</t>
+  </si>
+  <si>
+    <t>Implement testing for register function</t>
+  </si>
+  <si>
+    <t>Implement testing for Login/Logout function</t>
+  </si>
+  <si>
+    <t>Implement testing for Reset Password Function</t>
+  </si>
+  <si>
+    <t>Implement testing for new database for each back-end functions</t>
+  </si>
+  <si>
+    <t>Implement testing for database connection</t>
+  </si>
+  <si>
+    <t>Implement testing for profile function (detail, add, edit)</t>
+  </si>
+  <si>
+    <t>Implement testing for send/get message function</t>
+  </si>
+  <si>
+    <t>Implement testing for arrange/record meeting function</t>
+  </si>
+  <si>
+    <t>Implement testing for upload document function</t>
+  </si>
+  <si>
+    <t>Implement testing for view statics function (report)</t>
+  </si>
+  <si>
+    <t>Implement testing for comment function</t>
+  </si>
+  <si>
+    <t>Implement testing for Blog Writing function</t>
+  </si>
+  <si>
+    <t>Implement testing for Allocate/De-Allocate function of tutor</t>
+  </si>
+  <si>
+    <t>Implement testing for edit role function for admin</t>
+  </si>
+  <si>
+    <t>Implement testing for Import/Export function of admin role</t>
+  </si>
+  <si>
+    <t>Implement testing for add/disable account function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,14 +706,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -589,20 +733,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -918,11 +1056,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,24 +1077,24 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="7" t="s">
         <v>0</v>
       </c>
@@ -977,7 +1115,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1007,7 +1145,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1035,7 +1173,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1063,7 +1201,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
@@ -1091,7 +1229,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1119,7 +1257,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1146,7 +1284,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1172,7 +1310,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
@@ -1196,7 +1334,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1220,7 +1358,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
@@ -1244,7 +1382,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
@@ -1268,7 +1406,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1292,7 +1430,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1318,7 +1456,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="6" t="s">
         <v>9</v>
       </c>
@@ -1342,7 +1480,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
@@ -1366,7 +1504,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
@@ -1390,7 +1528,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="6" t="s">
         <v>12</v>
       </c>
@@ -1414,7 +1552,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
@@ -1439,24 +1577,24 @@
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="7" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +1615,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1513,7 +1651,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="6" t="s">
         <v>9</v>
       </c>
@@ -1544,7 +1682,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
@@ -1575,7 +1713,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="6" t="s">
         <v>11</v>
       </c>
@@ -1606,7 +1744,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="6" t="s">
         <v>12</v>
       </c>
@@ -1640,7 +1778,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="6" t="s">
         <v>13</v>
       </c>
@@ -1674,7 +1812,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -1700,7 +1838,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="6" t="s">
         <v>9</v>
       </c>
@@ -1724,7 +1862,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="6" t="s">
         <v>10</v>
       </c>
@@ -1748,7 +1886,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="6" t="s">
         <v>11</v>
       </c>
@@ -1772,7 +1910,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="6" t="s">
         <v>12</v>
       </c>
@@ -1796,7 +1934,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="6" t="s">
         <v>13</v>
       </c>
@@ -1820,7 +1958,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -1846,7 +1984,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="6" t="s">
         <v>9</v>
       </c>
@@ -1870,7 +2008,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="6" t="s">
         <v>10</v>
       </c>
@@ -1894,7 +2032,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="6" t="s">
         <v>11</v>
       </c>
@@ -1918,7 +2056,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="6" t="s">
         <v>12</v>
       </c>
@@ -1942,7 +2080,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="6" t="s">
         <v>13</v>
       </c>
@@ -1967,24 +2105,24 @@
     </row>
     <row r="49" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="21"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="30"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="25"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="27"/>
       <c r="C51" s="7" t="s">
         <v>0</v>
       </c>
@@ -2005,14 +2143,15 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>40</v>
+      <c r="C52" s="5" t="str">
+        <f>H34</f>
+        <v>Alocating works for next week for each member</v>
       </c>
       <c r="D52" s="3" t="str">
         <f>C58</f>
@@ -2037,172 +2176,177 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>31</v>
+      <c r="C53" s="5" t="str">
+        <f t="shared" ref="C53:C57" si="11">H35</f>
+        <v xml:space="preserve">Receive Task &amp; Proposal Feedbacks </v>
       </c>
       <c r="D53" s="3" t="str">
-        <f t="shared" ref="D53:H57" si="11">C59</f>
+        <f t="shared" ref="D53:H57" si="12">C59</f>
         <v>search and user interface ideas of the site</v>
       </c>
       <c r="E53" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Design mockup Admin Dashboard ,Create an account Page , 
 List account Page, Profile Page for Admin</v>
       </c>
       <c r="F53" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Design user Interface Admin Dashboard ,Create an account Page , 
 List account Page, Profile Page for Admin</v>
       </c>
       <c r="G53" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Design user Interface Admin Dashboard ,Create an account Page , 
 List account Page, Profile Page for Admin</v>
       </c>
       <c r="H53" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Meet the product owner
 to discuss and present the user interface of the site</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>31</v>
+      <c r="C54" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">Receive Task &amp; Proposal Feedbacks </v>
       </c>
       <c r="D54" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>search and user interface ideas of the site</v>
       </c>
       <c r="E54" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Design mockup staff Dashboard , Profile Page (staff) 
 List student Page, List staff page</v>
       </c>
       <c r="F54" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Design user Interface staff Dashboard , Profile Page (staff) 
 List student Page, List staff page</v>
       </c>
       <c r="G54" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Design user Interface staff Dashboard , Profile Page (staff) 
 List student Page, List staff page</v>
       </c>
       <c r="H54" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Meet the product owner
 to discuss and present the user interface of the site</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>31</v>
+      <c r="C55" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">Receive Task &amp; Proposal Feedbacks </v>
       </c>
       <c r="D55" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>search and user interface ideas of the site</v>
       </c>
       <c r="E55" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Add account Page (staff), Static page , Allocating page, 
 Comments Page (Student &amp; tutor)</v>
       </c>
       <c r="F55" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Design user Interface  Add account Page (staff), Static page , Allocating page, 
 Comments Page (Student &amp; tutor)</v>
       </c>
       <c r="G55" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Design user Interface  Add account Page (staff), Static page , Allocating page, 
 Comments Page (Student &amp; tutor)</v>
       </c>
       <c r="H55" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Meet the product owner
 to discuss and present the user interface of the site</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>31</v>
+      <c r="C56" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">Receive Task &amp; Proposal Feedbacks </v>
       </c>
       <c r="D56" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>search and user interface ideas of the site</v>
       </c>
       <c r="E56" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Design mockup for Student Dashboard, Upload file page (Student), 
 Message Page (Student) Join meeting page (Student), Profile (Student)</v>
       </c>
       <c r="F56" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Design user Interface for Student Dashboard, Upload file page (Student), 
 Message Page (Student) Join meeting page (Student), Profile (Student)</v>
       </c>
       <c r="G56" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Design user Interface for Student Dashboard, Upload file page (Student), 
 Message Page (Student) Join meeting page (Student), Profile (Student)</v>
       </c>
       <c r="H56" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Meet the product owner
 to discuss and present the user interface of the site</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>31</v>
+      <c r="C57" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">Receive Task &amp; Proposal Feedbacks </v>
       </c>
       <c r="D57" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>search and user interface ideas of the site</v>
       </c>
       <c r="E57" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Design mockup for tutor Dashboard, Upload file page (Tutor), 
 Message Page (Tutor) Join meeting page (Tutor), Profile (Tutor)</v>
       </c>
       <c r="F57" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Design user Interface for tutor Dashboard, Upload file page (Tutor), 
 Message Page (Tutor) Join meeting page (Tutor), Profile (Tutor)</v>
       </c>
       <c r="G57" s="3" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Design user Interface for tutor Dashboard, Upload file page (Tutor), 
 Message Page (Tutor) Join meeting page (Tutor), Profile (Tutor)</v>
       </c>
       <c r="H57" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>Meet the product owner
 to discuss and present the user interface of the site</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B58" s="6" t="s">
@@ -2224,11 +2368,11 @@
         <v>54</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="6" t="s">
         <v>9</v>
       </c>
@@ -2248,11 +2392,11 @@
         <v>54</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="6" t="s">
         <v>10</v>
       </c>
@@ -2272,11 +2416,11 @@
         <v>54</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="6" t="s">
         <v>11</v>
       </c>
@@ -2296,11 +2440,11 @@
         <v>54</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="6" t="s">
         <v>12</v>
       </c>
@@ -2320,11 +2464,11 @@
         <v>54</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="6" t="s">
         <v>13</v>
       </c>
@@ -2344,11 +2488,11 @@
         <v>54</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -2374,7 +2518,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="6" t="s">
         <v>9</v>
       </c>
@@ -2398,7 +2542,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="6" t="s">
         <v>10</v>
       </c>
@@ -2422,7 +2566,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="6" t="s">
         <v>11</v>
       </c>
@@ -2446,7 +2590,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="6" t="s">
         <v>12</v>
       </c>
@@ -2470,7 +2614,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="29"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="6" t="s">
         <v>13</v>
       </c>
@@ -2495,24 +2639,24 @@
     </row>
     <row r="73" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="21"/>
+      <c r="C74" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="30"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="25"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="27"/>
       <c r="C75" s="7" t="s">
         <v>0</v>
       </c>
@@ -2533,14 +2677,15 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="26" t="s">
+      <c r="A76" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="13" t="s">
-        <v>63</v>
+      <c r="C76" s="5" t="str">
+        <f>H58</f>
+        <v>organize meeting problems encountered when presenting the user interface, and plan to modify the interface according to customer requirements</v>
       </c>
       <c r="D76" s="3" t="str">
         <f>C82</f>
@@ -2564,298 +2709,303 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>63</v>
+      <c r="C77" s="5" t="str">
+        <f t="shared" ref="C77:C81" si="13">H59</f>
+        <v>organize meeting problems encountered when presenting the user interface, and plan to modify the interface according to customer requirements</v>
       </c>
       <c r="D77" s="3" t="str">
-        <f t="shared" ref="D77:H81" si="12">C83</f>
+        <f t="shared" ref="D77:H81" si="14">C83</f>
         <v>Customize the interface according to customer requirements</v>
       </c>
       <c r="E77" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Customize the interface according to customer requirements</v>
       </c>
       <c r="F77" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>meet customers to re-present the revised interface</v>
       </c>
       <c r="G77" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>last modified and completed front-end</v>
       </c>
       <c r="H77" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Write progress reports for phase 2</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>63</v>
+      <c r="C78" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>organize meeting problems encountered when presenting the user interface, and plan to modify the interface according to customer requirements</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Customize the interface according to customer requirements</v>
       </c>
       <c r="E78" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Customize the interface according to customer requirements</v>
       </c>
       <c r="F78" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>meet customers to re-present the revised interface</v>
       </c>
       <c r="G78" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>last modified and completed front-end</v>
       </c>
       <c r="H78" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Write progress reports for phase 2</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>63</v>
+      <c r="C79" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>organize meeting problems encountered when presenting the user interface, and plan to modify the interface according to customer requirements</v>
       </c>
       <c r="D79" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Customize the interface according to customer requirements</v>
       </c>
       <c r="E79" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Customize the interface according to customer requirements</v>
       </c>
       <c r="F79" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>meet customers to re-present the revised interface</v>
       </c>
       <c r="G79" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>last modified and completed front-end</v>
       </c>
       <c r="H79" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Write progress reports for phase 2</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>63</v>
+      <c r="C80" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>organize meeting problems encountered when presenting the user interface, and plan to modify the interface according to customer requirements</v>
       </c>
       <c r="D80" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Customize the interface according to customer requirements</v>
       </c>
       <c r="E80" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Customize the interface according to customer requirements</v>
       </c>
       <c r="F80" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>meet customers to re-present the revised interface</v>
       </c>
       <c r="G80" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>last modified and completed front-end</v>
       </c>
       <c r="H80" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Write progress reports for phase 2</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
+      <c r="A81" s="22"/>
       <c r="B81" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>63</v>
+      <c r="C81" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>organize meeting problems encountered when presenting the user interface, and plan to modify the interface according to customer requirements</v>
       </c>
       <c r="D81" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Customize the interface according to customer requirements</v>
       </c>
       <c r="E81" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Customize the interface according to customer requirements</v>
       </c>
       <c r="F81" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>meet customers to re-present the revised interface</v>
       </c>
       <c r="G81" s="3" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>last modified and completed front-end</v>
       </c>
       <c r="H81" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Write progress reports for phase 2</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="26" t="s">
+      <c r="A82" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H82" s="30" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="83" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H83" s="30" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="84" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C84" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H84" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D84" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H84" s="30" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="85" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H85" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="86" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="27"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D86" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H86" s="30" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="87" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
+      <c r="A87" s="22"/>
       <c r="B87" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C87" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D87" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H87" s="30" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="88" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B88" s="6" t="s">
@@ -2881,7 +3031,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="27"/>
+      <c r="A89" s="21"/>
       <c r="B89" s="6" t="s">
         <v>9</v>
       </c>
@@ -2905,7 +3055,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="27"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="6" t="s">
         <v>10</v>
       </c>
@@ -2929,7 +3079,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="27"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="6" t="s">
         <v>11</v>
       </c>
@@ -2953,7 +3103,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="27"/>
+      <c r="A92" s="21"/>
       <c r="B92" s="6" t="s">
         <v>12</v>
       </c>
@@ -2977,7 +3127,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="29"/>
+      <c r="A93" s="23"/>
       <c r="B93" s="6" t="s">
         <v>13</v>
       </c>
@@ -3002,24 +3152,24 @@
     </row>
     <row r="97" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="24" t="s">
+      <c r="B98" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C98" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="21"/>
+      <c r="C98" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="30"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
-      <c r="B99" s="25"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="27"/>
       <c r="C99" s="7" t="s">
         <v>0</v>
       </c>
@@ -3040,155 +3190,347 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="4"/>
+      <c r="C100" s="5" t="str">
+        <f>H82</f>
+        <v xml:space="preserve">Organize a meeting to inform about the early stages of completion, division and planning for the back-end stage
+Organize a meeting to inform about the early stages of completion, division and planning for the back-end stage
+ </v>
+      </c>
+      <c r="D100" s="9" t="str">
+        <f>C106</f>
+        <v>Build register function</v>
+      </c>
+      <c r="E100" s="9" t="str">
+        <f t="shared" ref="E100:H100" si="15">D106</f>
+        <v>Build register function</v>
+      </c>
+      <c r="F100" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>Build register function</v>
+      </c>
+      <c r="G100" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>Implement testing for register function</v>
+      </c>
+      <c r="H100" s="9" t="str">
+        <f t="shared" si="15"/>
+        <v>Write progress reports for phase 2</v>
+      </c>
     </row>
     <row r="101" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="27"/>
+      <c r="A101" s="21"/>
       <c r="B101" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="4"/>
+      <c r="C101" s="5" t="str">
+        <f t="shared" ref="C101:C105" si="16">H83</f>
+        <v xml:space="preserve">Organize a meeting to inform about the early stages of completion, division and planning for the back-end stage
+Organize a meeting to inform about the early stages of completion, division and planning for the back-end stage
+ </v>
+      </c>
+      <c r="D101" s="9" t="str">
+        <f t="shared" ref="D101:H105" si="17">C107</f>
+        <v>Login/Logout function</v>
+      </c>
+      <c r="E101" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Login/Logout function</v>
+      </c>
+      <c r="F101" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Login/Logout function</v>
+      </c>
+      <c r="G101" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Implement testing for Login/Logout function</v>
+      </c>
+      <c r="H101" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Write progress reports for phase 2</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="27"/>
+      <c r="A102" s="21"/>
       <c r="B102" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="4"/>
+      <c r="C102" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">Organize a meeting to inform about the early stages of completion, division and planning for the back-end stage
+Organize a meeting to inform about the early stages of completion, division and planning for the back-end stage
+ </v>
+      </c>
+      <c r="D102" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Build Reset Password Function</v>
+      </c>
+      <c r="E102" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Build Reset Password Function</v>
+      </c>
+      <c r="F102" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Build Reset Password Function</v>
+      </c>
+      <c r="G102" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Implement testing for Reset Password Function</v>
+      </c>
+      <c r="H102" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Write progress reports for phase 2</v>
+      </c>
     </row>
     <row r="103" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="27"/>
+      <c r="A103" s="21"/>
       <c r="B103" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="4"/>
+      <c r="C103" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">Organize a meeting to inform about the early stages of completion, division and planning for the back-end stage
+Organize a meeting to inform about the early stages of completion, division and planning for the back-end stage
+ </v>
+      </c>
+      <c r="D103" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Modified database for each back-end functions</v>
+      </c>
+      <c r="E103" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Modified database for each back-end functions</v>
+      </c>
+      <c r="F103" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Modified database for each back-end functions</v>
+      </c>
+      <c r="G103" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Implement testing for new database for each back-end functions</v>
+      </c>
+      <c r="H103" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Write progress reports for phase 2</v>
+      </c>
     </row>
     <row r="104" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="27"/>
+      <c r="A104" s="21"/>
       <c r="B104" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="4"/>
+      <c r="C104" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">Organize a meeting to inform about the early stages of completion, division and planning for the back-end stage
+Organize a meeting to inform about the early stages of completion, division and planning for the back-end stage
+ </v>
+      </c>
+      <c r="D104" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Estimated testing plan for each functions</v>
+      </c>
+      <c r="E104" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Estimated testing plan for each functions</v>
+      </c>
+      <c r="F104" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Estimated testing plan for each functions</v>
+      </c>
+      <c r="G104" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Estimated testing plan for each functions</v>
+      </c>
+      <c r="H104" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Write progress reports for phase 2</v>
+      </c>
     </row>
     <row r="105" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="28"/>
+      <c r="A105" s="22"/>
       <c r="B105" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="4"/>
+      <c r="C105" s="5" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">Organize a meeting to inform about the early stages of completion, division and planning for the back-end stage
+Organize a meeting to inform about the early stages of completion, division and planning for the back-end stage
+ </v>
+      </c>
+      <c r="D105" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Estimated database connection</v>
+      </c>
+      <c r="E105" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Estimated database connection</v>
+      </c>
+      <c r="F105" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Estimated database connection</v>
+      </c>
+      <c r="G105" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Implement testing for database connection</v>
+      </c>
+      <c r="H105" s="9" t="str">
+        <f t="shared" si="17"/>
+        <v>Write progress reports for phase 2</v>
+      </c>
     </row>
     <row r="106" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="26" t="s">
+      <c r="A106" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="4"/>
+      <c r="C106" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="107" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="27"/>
+      <c r="A107" s="21"/>
       <c r="B107" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="4"/>
+      <c r="C107" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="108" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="27"/>
+      <c r="A108" s="21"/>
       <c r="B108" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="4"/>
+      <c r="C108" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="109" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="27"/>
+      <c r="A109" s="21"/>
       <c r="B109" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="4"/>
+      <c r="C109" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="110" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="27"/>
+      <c r="A110" s="21"/>
       <c r="B110" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="4"/>
+      <c r="C110" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="111" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="28"/>
+      <c r="A111" s="22"/>
       <c r="B111" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="4"/>
+      <c r="C111" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="112" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="26" t="s">
+      <c r="A112" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B112" s="6" t="s">
@@ -3202,7 +3544,7 @@
       <c r="H112" s="4"/>
     </row>
     <row r="113" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="27"/>
+      <c r="A113" s="21"/>
       <c r="B113" s="6" t="s">
         <v>9</v>
       </c>
@@ -3214,7 +3556,7 @@
       <c r="H113" s="4"/>
     </row>
     <row r="114" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="27"/>
+      <c r="A114" s="21"/>
       <c r="B114" s="6" t="s">
         <v>10</v>
       </c>
@@ -3226,11 +3568,13 @@
       <c r="H114" s="4"/>
     </row>
     <row r="115" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="27"/>
+      <c r="A115" s="21"/>
       <c r="B115" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C115" s="5"/>
+      <c r="C115" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
@@ -3238,7 +3582,7 @@
       <c r="H115" s="4"/>
     </row>
     <row r="116" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="27"/>
+      <c r="A116" s="21"/>
       <c r="B116" s="6" t="s">
         <v>12</v>
       </c>
@@ -3250,7 +3594,7 @@
       <c r="H116" s="4"/>
     </row>
     <row r="117" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="29"/>
+      <c r="A117" s="23"/>
       <c r="B117" s="6" t="s">
         <v>13</v>
       </c>
@@ -3263,24 +3607,24 @@
     </row>
     <row r="121" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="122" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="22" t="s">
+      <c r="A122" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B122" s="24" t="s">
+      <c r="B122" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="21"/>
+      <c r="C122" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="30"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="23"/>
-      <c r="B123" s="25"/>
+      <c r="A123" s="25"/>
+      <c r="B123" s="27"/>
       <c r="C123" s="7" t="s">
         <v>0</v>
       </c>
@@ -3301,155 +3645,335 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="26" t="s">
+      <c r="A124" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="4"/>
+      <c r="C124" s="5" t="str">
+        <f>H106</f>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D124" s="9" t="str">
+        <f>C130</f>
+        <v>Build profile function (detail, add, edit)</v>
+      </c>
+      <c r="E124" s="9" t="str">
+        <f t="shared" ref="E124:H124" si="18">D130</f>
+        <v>Build profile function (detail, add, edit)</v>
+      </c>
+      <c r="F124" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>Build profile function (detail, add, edit)</v>
+      </c>
+      <c r="G124" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>Implement testing for profile function (detail, add, edit)</v>
+      </c>
+      <c r="H124" s="9" t="str">
+        <f t="shared" si="18"/>
+        <v>Write progress reports for phase 2</v>
+      </c>
     </row>
     <row r="125" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="27"/>
+      <c r="A125" s="21"/>
       <c r="B125" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C125" s="5"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="4"/>
+      <c r="C125" s="5" t="str">
+        <f t="shared" ref="C125:C129" si="19">H107</f>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D125" s="9" t="str">
+        <f t="shared" ref="D125:H125" si="20">C131</f>
+        <v>Build send/get message function</v>
+      </c>
+      <c r="E125" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>Build send/get message function</v>
+      </c>
+      <c r="F125" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>Build send/get message function</v>
+      </c>
+      <c r="G125" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>Implement testing for send/get message function</v>
+      </c>
+      <c r="H125" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>Write progress reports for phase 2</v>
+      </c>
     </row>
     <row r="126" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="27"/>
+      <c r="A126" s="21"/>
       <c r="B126" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C126" s="5"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="4"/>
+      <c r="C126" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D126" s="9" t="str">
+        <f t="shared" ref="D126:H126" si="21">C132</f>
+        <v>Build arrange/record meeting function</v>
+      </c>
+      <c r="E126" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>Build arrange/record meeting function</v>
+      </c>
+      <c r="F126" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>Build arrange/record meeting function</v>
+      </c>
+      <c r="G126" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>Implement testing for arrange/record meeting function</v>
+      </c>
+      <c r="H126" s="9" t="str">
+        <f t="shared" si="21"/>
+        <v>Write progress reports for phase 2</v>
+      </c>
     </row>
     <row r="127" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="27"/>
+      <c r="A127" s="21"/>
       <c r="B127" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="4"/>
+      <c r="C127" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D127" s="9" t="str">
+        <f t="shared" ref="D127:H127" si="22">C133</f>
+        <v>Build upload document function</v>
+      </c>
+      <c r="E127" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>Build upload document function</v>
+      </c>
+      <c r="F127" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>Build upload document function</v>
+      </c>
+      <c r="G127" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>Implement testing for upload document function</v>
+      </c>
+      <c r="H127" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>Write progress reports for phase 2</v>
+      </c>
     </row>
     <row r="128" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="27"/>
+      <c r="A128" s="21"/>
       <c r="B128" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="4"/>
+      <c r="C128" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D128" s="9" t="str">
+        <f t="shared" ref="D128:H128" si="23">C134</f>
+        <v>Build view statics function (report)</v>
+      </c>
+      <c r="E128" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>Build view statics function (report)</v>
+      </c>
+      <c r="F128" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>Build view statics function (report)</v>
+      </c>
+      <c r="G128" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>Implement testing for view statics function (report)</v>
+      </c>
+      <c r="H128" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>Write progress reports for phase 2</v>
+      </c>
     </row>
     <row r="129" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="28"/>
+      <c r="A129" s="22"/>
       <c r="B129" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="4"/>
+      <c r="C129" s="5" t="str">
+        <f t="shared" si="19"/>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D129" s="9" t="str">
+        <f t="shared" ref="D129:H129" si="24">C135</f>
+        <v>Build comment function</v>
+      </c>
+      <c r="E129" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>Build comment function</v>
+      </c>
+      <c r="F129" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>Build comment function</v>
+      </c>
+      <c r="G129" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>Implement testing for comment function</v>
+      </c>
+      <c r="H129" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>Write progress reports for phase 2</v>
+      </c>
     </row>
     <row r="130" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="26" t="s">
+      <c r="A130" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="4"/>
+      <c r="C130" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="131" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="27"/>
+      <c r="A131" s="21"/>
       <c r="B131" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="4"/>
+      <c r="C131" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="132" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="27"/>
+      <c r="A132" s="21"/>
       <c r="B132" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C132" s="5"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="4"/>
+      <c r="C132" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="133" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="27"/>
+      <c r="A133" s="21"/>
       <c r="B133" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="4"/>
+      <c r="C133" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="134" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="27"/>
+      <c r="A134" s="21"/>
       <c r="B134" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="4"/>
+      <c r="C134" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="135" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="28"/>
+      <c r="A135" s="22"/>
       <c r="B135" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="4"/>
+      <c r="C135" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="136" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="26" t="s">
+      <c r="A136" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B136" s="6" t="s">
@@ -3463,7 +3987,7 @@
       <c r="H136" s="4"/>
     </row>
     <row r="137" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="27"/>
+      <c r="A137" s="21"/>
       <c r="B137" s="6" t="s">
         <v>9</v>
       </c>
@@ -3475,7 +3999,7 @@
       <c r="H137" s="4"/>
     </row>
     <row r="138" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="27"/>
+      <c r="A138" s="21"/>
       <c r="B138" s="6" t="s">
         <v>10</v>
       </c>
@@ -3487,7 +4011,7 @@
       <c r="H138" s="4"/>
     </row>
     <row r="139" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="27"/>
+      <c r="A139" s="21"/>
       <c r="B139" s="6" t="s">
         <v>11</v>
       </c>
@@ -3499,7 +4023,7 @@
       <c r="H139" s="4"/>
     </row>
     <row r="140" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="27"/>
+      <c r="A140" s="21"/>
       <c r="B140" s="6" t="s">
         <v>12</v>
       </c>
@@ -3511,7 +4035,7 @@
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="29"/>
+      <c r="A141" s="23"/>
       <c r="B141" s="6" t="s">
         <v>13</v>
       </c>
@@ -3524,24 +4048,24 @@
     </row>
     <row r="145" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="146" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="22" t="s">
+      <c r="A146" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B146" s="24" t="s">
+      <c r="B146" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C146" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D146" s="20"/>
-      <c r="E146" s="20"/>
-      <c r="F146" s="20"/>
-      <c r="G146" s="20"/>
-      <c r="H146" s="21"/>
+      <c r="C146" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="30"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="23"/>
-      <c r="B147" s="25"/>
+      <c r="A147" s="25"/>
+      <c r="B147" s="27"/>
       <c r="C147" s="7" t="s">
         <v>0</v>
       </c>
@@ -3562,155 +4086,335 @@
       </c>
     </row>
     <row r="148" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="26" t="s">
+      <c r="A148" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="4"/>
+      <c r="C148" s="5" t="str">
+        <f>H130</f>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D148" s="9" t="str">
+        <f>C154</f>
+        <v>Build Blog Writing function</v>
+      </c>
+      <c r="E148" s="9" t="str">
+        <f t="shared" ref="E148:H148" si="25">D154</f>
+        <v>Build Blog Writing function</v>
+      </c>
+      <c r="F148" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>Build Blog Writing function</v>
+      </c>
+      <c r="G148" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>Implement testing for Blog Writing function</v>
+      </c>
+      <c r="H148" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>Write final progress reports for phase 2</v>
+      </c>
     </row>
     <row r="149" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="27"/>
+      <c r="A149" s="21"/>
       <c r="B149" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="4"/>
+      <c r="C149" s="5" t="str">
+        <f t="shared" ref="C149:C153" si="26">H131</f>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D149" s="9" t="str">
+        <f t="shared" ref="D149:H149" si="27">C155</f>
+        <v>Build Allocate/De-Allocate function of tutor</v>
+      </c>
+      <c r="E149" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>Build Allocate/De-Allocate function of tutor</v>
+      </c>
+      <c r="F149" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>Build Allocate/De-Allocate function of tutor</v>
+      </c>
+      <c r="G149" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>Implement testing for Allocate/De-Allocate function of tutor</v>
+      </c>
+      <c r="H149" s="9" t="str">
+        <f t="shared" si="27"/>
+        <v>Write final progress reports for phase 2</v>
+      </c>
     </row>
     <row r="150" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="27"/>
+      <c r="A150" s="21"/>
       <c r="B150" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C150" s="5"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="4"/>
+      <c r="C150" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D150" s="9" t="str">
+        <f t="shared" ref="D150:H150" si="28">C156</f>
+        <v>Build edit role function for admin</v>
+      </c>
+      <c r="E150" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>Build edit role function for admin</v>
+      </c>
+      <c r="F150" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>Build edit role function for admin</v>
+      </c>
+      <c r="G150" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>Implement testing for edit role function for admin</v>
+      </c>
+      <c r="H150" s="9" t="str">
+        <f t="shared" si="28"/>
+        <v>Write final progress reports for phase 2</v>
+      </c>
     </row>
     <row r="151" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="27"/>
+      <c r="A151" s="21"/>
       <c r="B151" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="4"/>
+      <c r="C151" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D151" s="9" t="str">
+        <f t="shared" ref="D151:H151" si="29">C157</f>
+        <v>Build Import/Export function of admin role</v>
+      </c>
+      <c r="E151" s="9" t="str">
+        <f t="shared" si="29"/>
+        <v>Build Import/Export function of admin role</v>
+      </c>
+      <c r="F151" s="9" t="str">
+        <f t="shared" si="29"/>
+        <v>Build Import/Export function of admin role</v>
+      </c>
+      <c r="G151" s="9" t="str">
+        <f t="shared" si="29"/>
+        <v>Implement testing for Import/Export function of admin role</v>
+      </c>
+      <c r="H151" s="9" t="str">
+        <f t="shared" si="29"/>
+        <v>Write final progress reports for phase 2</v>
+      </c>
     </row>
     <row r="152" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="27"/>
+      <c r="A152" s="21"/>
       <c r="B152" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="4"/>
+      <c r="C152" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D152" s="9" t="str">
+        <f t="shared" ref="D152:H152" si="30">C158</f>
+        <v>Implement testing for view user from admin</v>
+      </c>
+      <c r="E152" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>Implement testing for view user from admin</v>
+      </c>
+      <c r="F152" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>Implement testing for view user from admin</v>
+      </c>
+      <c r="G152" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>Implement testing for view user from admin</v>
+      </c>
+      <c r="H152" s="9" t="str">
+        <f t="shared" si="30"/>
+        <v>Write final progress reports for phase 2</v>
+      </c>
     </row>
     <row r="153" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="28"/>
+      <c r="A153" s="22"/>
       <c r="B153" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C153" s="5"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="4"/>
+      <c r="C153" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D153" s="9" t="str">
+        <f t="shared" ref="D153:H153" si="31">C159</f>
+        <v>Build add/disable account function</v>
+      </c>
+      <c r="E153" s="9" t="str">
+        <f t="shared" si="31"/>
+        <v>Build add/disable account function</v>
+      </c>
+      <c r="F153" s="9" t="str">
+        <f t="shared" si="31"/>
+        <v>Build add/disable account function</v>
+      </c>
+      <c r="G153" s="9" t="str">
+        <f t="shared" si="31"/>
+        <v>Implement testing for add/disable account function</v>
+      </c>
+      <c r="H153" s="9" t="str">
+        <f t="shared" si="31"/>
+        <v>Write final progress reports for phase 2</v>
+      </c>
     </row>
     <row r="154" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="26" t="s">
+      <c r="A154" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C154" s="5"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="4"/>
+      <c r="C154" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H154" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="155" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="27"/>
+      <c r="A155" s="21"/>
       <c r="B155" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C155" s="5"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="4"/>
+      <c r="C155" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H155" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="156" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="27"/>
+      <c r="A156" s="21"/>
       <c r="B156" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C156" s="5"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="4"/>
+      <c r="C156" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H156" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="157" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="27"/>
+      <c r="A157" s="21"/>
       <c r="B157" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C157" s="5"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="4"/>
+      <c r="C157" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="158" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="27"/>
+      <c r="A158" s="21"/>
       <c r="B158" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C158" s="5"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="4"/>
+      <c r="C158" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="159" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="28"/>
+      <c r="A159" s="22"/>
       <c r="B159" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C159" s="5"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="4"/>
+      <c r="C159" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="160" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="26" t="s">
+      <c r="A160" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B160" s="6" t="s">
@@ -3724,7 +4428,7 @@
       <c r="H160" s="4"/>
     </row>
     <row r="161" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="27"/>
+      <c r="A161" s="21"/>
       <c r="B161" s="6" t="s">
         <v>9</v>
       </c>
@@ -3736,7 +4440,7 @@
       <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="27"/>
+      <c r="A162" s="21"/>
       <c r="B162" s="6" t="s">
         <v>10</v>
       </c>
@@ -3748,7 +4452,7 @@
       <c r="H162" s="4"/>
     </row>
     <row r="163" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="27"/>
+      <c r="A163" s="21"/>
       <c r="B163" s="6" t="s">
         <v>11</v>
       </c>
@@ -3760,7 +4464,7 @@
       <c r="H163" s="4"/>
     </row>
     <row r="164" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="27"/>
+      <c r="A164" s="21"/>
       <c r="B164" s="6" t="s">
         <v>12</v>
       </c>
@@ -3772,7 +4476,7 @@
       <c r="H164" s="4"/>
     </row>
     <row r="165" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="29"/>
+      <c r="A165" s="23"/>
       <c r="B165" s="6" t="s">
         <v>13</v>
       </c>
@@ -3785,24 +4489,24 @@
     </row>
     <row r="169" spans="1:8" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="170" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="22" t="s">
+      <c r="A170" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B170" s="24" t="s">
+      <c r="B170" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C170" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D170" s="20"/>
-      <c r="E170" s="20"/>
-      <c r="F170" s="20"/>
-      <c r="G170" s="20"/>
-      <c r="H170" s="21"/>
+      <c r="C170" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D170" s="29"/>
+      <c r="E170" s="29"/>
+      <c r="F170" s="29"/>
+      <c r="G170" s="29"/>
+      <c r="H170" s="30"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="23"/>
-      <c r="B171" s="25"/>
+      <c r="A171" s="25"/>
+      <c r="B171" s="27"/>
       <c r="C171" s="7" t="s">
         <v>0</v>
       </c>
@@ -3823,155 +4527,335 @@
       </c>
     </row>
     <row r="172" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="26" t="s">
+      <c r="A172" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C172" s="5"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="4"/>
+      <c r="C172" s="5" t="str">
+        <f>H154</f>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D172" s="9" t="str">
+        <f>C178</f>
+        <v>Sprint planning final review</v>
+      </c>
+      <c r="E172" s="9" t="str">
+        <f t="shared" ref="E172:H172" si="32">D178</f>
+        <v>Upload website to host server</v>
+      </c>
+      <c r="F172" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>Upload website to host server</v>
+      </c>
+      <c r="G172" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>Write Guide for website</v>
+      </c>
+      <c r="H172" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>upload source code to github</v>
+      </c>
     </row>
     <row r="173" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="27"/>
+      <c r="A173" s="21"/>
       <c r="B173" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C173" s="5"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="4"/>
+      <c r="C173" s="5" t="str">
+        <f t="shared" ref="C173:C177" si="33">H155</f>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D173" s="9" t="str">
+        <f t="shared" ref="D173:H173" si="34">C179</f>
+        <v>Sprint planning final review</v>
+      </c>
+      <c r="E173" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>Implement final System testing</v>
+      </c>
+      <c r="F173" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>Implement final System testing</v>
+      </c>
+      <c r="G173" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>Write Guideline for the website</v>
+      </c>
+      <c r="H173" s="9" t="str">
+        <f t="shared" si="34"/>
+        <v>upload source code to github</v>
+      </c>
     </row>
     <row r="174" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="27"/>
+      <c r="A174" s="21"/>
       <c r="B174" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C174" s="5"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="4"/>
+      <c r="C174" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D174" s="9" t="str">
+        <f t="shared" ref="D174:H174" si="35">C180</f>
+        <v>Sprint planning final review</v>
+      </c>
+      <c r="E174" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>Develop Maintaince schedule for the system</v>
+      </c>
+      <c r="F174" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>Develop Maintaince schedule for the system</v>
+      </c>
+      <c r="G174" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>Write Guideline for the website</v>
+      </c>
+      <c r="H174" s="9" t="str">
+        <f t="shared" si="35"/>
+        <v>upload source code to github</v>
+      </c>
     </row>
     <row r="175" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="27"/>
+      <c r="A175" s="21"/>
       <c r="B175" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C175" s="5"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="4"/>
+      <c r="C175" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D175" s="9" t="str">
+        <f t="shared" ref="D175:H175" si="36">C181</f>
+        <v>Sprint planning final review</v>
+      </c>
+      <c r="E175" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>Write Guideline for the website</v>
+      </c>
+      <c r="F175" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>Write Guideline for the website</v>
+      </c>
+      <c r="G175" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>Write Guideline for the website</v>
+      </c>
+      <c r="H175" s="9" t="str">
+        <f t="shared" si="36"/>
+        <v>upload source code to github</v>
+      </c>
     </row>
     <row r="176" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="27"/>
+      <c r="A176" s="21"/>
       <c r="B176" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C176" s="5"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="4"/>
+      <c r="C176" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D176" s="9" t="str">
+        <f t="shared" ref="D176:H176" si="37">C182</f>
+        <v>Sprint planning final review</v>
+      </c>
+      <c r="E176" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>Implement final System testing</v>
+      </c>
+      <c r="F176" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>Implement final System testing</v>
+      </c>
+      <c r="G176" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>Write Guideline for the website</v>
+      </c>
+      <c r="H176" s="9" t="str">
+        <f t="shared" si="37"/>
+        <v>upload source code to github</v>
+      </c>
     </row>
     <row r="177" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="28"/>
+      <c r="A177" s="22"/>
       <c r="B177" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C177" s="5"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="4"/>
+      <c r="C177" s="5" t="str">
+        <f t="shared" si="33"/>
+        <v>Meeting with customer to confirm the final result of this week</v>
+      </c>
+      <c r="D177" s="9" t="str">
+        <f t="shared" ref="D177:H177" si="38">C183</f>
+        <v>Sprint planning final review</v>
+      </c>
+      <c r="E177" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>Develop Maintaince schedule for the system</v>
+      </c>
+      <c r="F177" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>Write Guideline for the website</v>
+      </c>
+      <c r="G177" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>Write Guideline for the website</v>
+      </c>
+      <c r="H177" s="9" t="str">
+        <f t="shared" si="38"/>
+        <v>upload source code to github</v>
+      </c>
     </row>
     <row r="178" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="26" t="s">
+      <c r="A178" s="20" t="s">
         <v>15</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C178" s="5"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="4"/>
+      <c r="C178" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="179" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="27"/>
+      <c r="A179" s="21"/>
       <c r="B179" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C179" s="5"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="4"/>
+      <c r="C179" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="180" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="27"/>
+      <c r="A180" s="21"/>
       <c r="B180" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C180" s="5"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="4"/>
+      <c r="C180" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="181" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="27"/>
+      <c r="A181" s="21"/>
       <c r="B181" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C181" s="5"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="4"/>
+      <c r="C181" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="182" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="27"/>
+      <c r="A182" s="21"/>
       <c r="B182" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C182" s="5"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="4"/>
+      <c r="C182" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H182" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="183" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="28"/>
+      <c r="A183" s="22"/>
       <c r="B183" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C183" s="5"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="4"/>
+      <c r="C183" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="184" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="26" t="s">
+      <c r="A184" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B184" s="6" t="s">
@@ -3985,7 +4869,7 @@
       <c r="H184" s="4"/>
     </row>
     <row r="185" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="27"/>
+      <c r="A185" s="21"/>
       <c r="B185" s="6" t="s">
         <v>9</v>
       </c>
@@ -3997,7 +4881,7 @@
       <c r="H185" s="4"/>
     </row>
     <row r="186" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="27"/>
+      <c r="A186" s="21"/>
       <c r="B186" s="6" t="s">
         <v>10</v>
       </c>
@@ -4009,7 +4893,7 @@
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="27"/>
+      <c r="A187" s="21"/>
       <c r="B187" s="6" t="s">
         <v>11</v>
       </c>
@@ -4021,7 +4905,7 @@
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="27"/>
+      <c r="A188" s="21"/>
       <c r="B188" s="6" t="s">
         <v>12</v>
       </c>
@@ -4033,7 +4917,7 @@
       <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="29"/>
+      <c r="A189" s="23"/>
       <c r="B189" s="6" t="s">
         <v>13</v>
       </c>
@@ -4046,11 +4930,36 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A172:A177"/>
-    <mergeCell ref="A178:A183"/>
-    <mergeCell ref="A184:A189"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A58:A63"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:H98"/>
+    <mergeCell ref="A106:A111"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A100:A105"/>
+    <mergeCell ref="A88:A93"/>
     <mergeCell ref="B122:B123"/>
     <mergeCell ref="C122:H122"/>
     <mergeCell ref="C146:H146"/>
@@ -4064,36 +4973,11 @@
     <mergeCell ref="A136:A141"/>
     <mergeCell ref="A124:A129"/>
     <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:H98"/>
-    <mergeCell ref="A106:A111"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A105"/>
-    <mergeCell ref="A88:A93"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A58:A63"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="A172:A177"/>
+    <mergeCell ref="A178:A183"/>
+    <mergeCell ref="A184:A189"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="B146:B147"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
